--- a/data/Countries_Region.xlsx
+++ b/data/Countries_Region.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/MA1/ada-2023-project-boat2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC40B7D4-3059-2E4E-AFC2-8FC2892E417C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B19E76-E4A7-684A-B1A8-2B7BAA66F7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16340" xr2:uid="{232E8A4B-ABF5-0F48-939A-D6DCD2123F62}"/>
   </bookViews>
@@ -494,9 +494,6 @@
     <t>Uzbekistan</t>
   </si>
   <si>
-    <t>​Europe</t>
-  </si>
-  <si>
     <t>Albania</t>
   </si>
   <si>
@@ -638,10 +635,13 @@
     <t>America</t>
   </si>
   <si>
-    <t>Asia and Pacifis</t>
-  </si>
-  <si>
     <t>Cis</t>
+  </si>
+  <si>
+    <t>Asia and Pacific</t>
+  </si>
+  <si>
+    <t>​Europ Region</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F47"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>80</v>
@@ -1044,10 +1044,10 @@
         <v>200</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -1068,7 +1068,7 @@
         <v>143</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1088,7 +1088,7 @@
         <v>144</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1108,7 +1108,7 @@
         <v>145</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1128,7 +1128,7 @@
         <v>146</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1148,7 +1148,7 @@
         <v>147</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1168,7 +1168,7 @@
         <v>148</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1188,7 +1188,7 @@
         <v>149</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1208,7 +1208,7 @@
         <v>150</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1228,7 +1228,7 @@
         <v>151</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1318,7 +1318,7 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1390,7 +1390,7 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1558,7 +1558,7 @@
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1684,7 +1684,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1698,7 +1698,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1752,7 +1752,7 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1764,7 +1764,7 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1776,7 +1776,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1788,7 +1788,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1798,7 +1798,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1808,7 +1808,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
